--- a/lab9/юзабилити.xlsx
+++ b/lab9/юзабилити.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
   <si>
     <t>Название</t>
   </si>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">наглядно разделить раздел отзывы и контакты </t>
   </si>
   <si>
-    <t>сменить стиль разделов об услугах</t>
-  </si>
-  <si>
     <t>Поиск раздела "О Нас"                            (поиск услуг)</t>
   </si>
   <si>
@@ -167,6 +164,15 @@
   </si>
   <si>
     <t>изменить название кнопки "Работы" на другое("Наши проекты" или "Наши продукты")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">сменить стиль </t>
+  </si>
+  <si>
+    <t xml:space="preserve">разделов </t>
+  </si>
+  <si>
+    <t>об услугах</t>
   </si>
 </sst>
 </file>
@@ -374,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,9 +390,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,6 +410,60 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -413,54 +471,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -472,14 +482,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,7 +778,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -770,173 +789,177 @@
   <dimension ref="A2:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E9"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1"/>
-    <col min="3" max="3" width="50.28515625" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="5" t="s">
+      <c r="A5" s="17"/>
+      <c r="B5" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="8"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="29" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="7" t="s">
+    <row r="9" spans="1:5" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
-        <v>45</v>
+      <c r="A11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="E11" s="15"/>
+    </row>
+    <row r="12" spans="1:5" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="18"/>
+      <c r="B12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E11" s="41"/>
-    </row>
-    <row r="12" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="9" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
         <v>42</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
-        <v>43</v>
       </c>
       <c r="B14" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="26" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>44</v>
+      <c r="C14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="37"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="6"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="37"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="6"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="38"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="8"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="35"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="D4:D6"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="D14:D17"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -980,30 +1003,30 @@
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="14"/>
+      <c r="D4" s="12"/>
     </row>
     <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="39"/>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="25"/>
+      <c r="C5" s="39"/>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="39"/>
       <c r="B6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="25"/>
+      <c r="C6" s="39"/>
     </row>
     <row r="7" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
@@ -1013,160 +1036,160 @@
       <c r="C7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="15"/>
+      <c r="D8" s="13"/>
     </row>
     <row r="9" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="39"/>
       <c r="B9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
+      <c r="C9" s="39"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="39"/>
       <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="25"/>
+      <c r="C10" s="39"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="39"/>
       <c r="B11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="25"/>
+      <c r="C11" s="39"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="39" t="s">
         <v>10</v>
       </c>
       <c r="B13" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15"/>
+      <c r="D13" s="13"/>
       <c r="E13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="39"/>
       <c r="B14" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="25"/>
+      <c r="C14" s="39"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="39"/>
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="25"/>
+      <c r="C15" s="39"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B17" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="14"/>
+      <c r="D17" s="12"/>
       <c r="E17" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="39"/>
       <c r="B18" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="25"/>
+      <c r="C18" s="39"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="39"/>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="25"/>
+      <c r="C19" s="39"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="39"/>
       <c r="B20" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="25"/>
+      <c r="C20" s="39"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B22" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="25" t="s">
+      <c r="D22" s="14"/>
+      <c r="E22" s="39" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="39"/>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="E23" s="25"/>
+      <c r="C23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="39"/>
       <c r="B24" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="E24" s="25"/>
+      <c r="C24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="39"/>
       <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="E25" s="25"/>
+      <c r="C25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C22:C25"/>
+    <mergeCell ref="A22:A25"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="C13:C15"/>
     <mergeCell ref="C8:C11"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C22:C25"/>
-    <mergeCell ref="A22:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
